--- a/resources/experiment 1/metrics/MAPE/average time/Neuropatía.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Neuropatía.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1014141115953234</v>
+        <v>0.1014141115953233</v>
       </c>
       <c r="C2" t="n">
         <v>0.1014141115953234</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01713761010694612</v>
+        <v>0.01783216377055935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01713761010694612</v>
+        <v>0.0166114838558714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01713761010694612</v>
+        <v>0.01760415828564628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01366484618993966</v>
+        <v>0.01648238219824683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01366484618993966</v>
+        <v>0.01488446158577947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01366484618993966</v>
+        <v>0.01479089809016145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05013591318019672</v>
+        <v>0.01425077639215865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05013591318019672</v>
+        <v>0.0146282420983529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05013591318019672</v>
+        <v>0.01495697851874981</v>
       </c>
     </row>
   </sheetData>
